--- a/data/study2germany_indicatorsCAMs_long.xlsx
+++ b/data/study2germany_indicatorsCAMs_long.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CAM_ID</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>num_edges_dashed</t>
+  </si>
+  <si>
+    <t>num_edges_invaliddashed</t>
   </si>
   <si>
     <t>reciprocity</t>
@@ -207,6 +210,9 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -252,33 +258,36 @@
         <v>6.0</v>
       </c>
       <c r="O2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.642857142857143</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.109369659814951</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>-0.30482151948814</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>8.0</v>
       </c>
-      <c r="S2" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.03571428571429</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.479335095496108</v>
       </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.230769230769231</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>0.538461538461538</v>
       </c>
     </row>
@@ -326,33 +335,36 @@
         <v>25.0</v>
       </c>
       <c r="O3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.981132075471698</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.338947368421052</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>-0.141148325358852</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>19.0</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>7.0</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.334100053020452</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
         <v>-0.523809523809524</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>-1.14285714285714</v>
       </c>
     </row>
@@ -400,33 +412,36 @@
         <v>4.0</v>
       </c>
       <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.461538461538462</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.593863052815556</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>-0.478334149377212</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>9.0</v>
       </c>
-      <c r="S4" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.07692307692308</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>0.427556620402015</v>
       </c>
-      <c r="V4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
         <v>-0.2</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -474,33 +489,36 @@
         <v>3.0</v>
       </c>
       <c r="O5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.75</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.378924955234347</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>-0.307672972493166</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>15.0</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>7.0</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>2.0625</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0.287119045750819</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
         <v>-0.233333333333333</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>-0.0666666666666667</v>
       </c>
     </row>
@@ -548,33 +566,36 @@
         <v>0.0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>-0.681978798586572</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>-0.742971887550201</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>6.0</v>
       </c>
-      <c r="S6" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.650932126696833</v>
       </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
         <v>-0.416666666666667</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>-0.916666666666667</v>
       </c>
     </row>
@@ -622,33 +643,36 @@
         <v>8.0</v>
       </c>
       <c r="O7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.3125</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.227885313442221</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>-0.243432247780074</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>14.0</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>7.0</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>2.03125</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>0.251655131617579</v>
       </c>
-      <c r="V7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
         <v>0.210526315789474</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>0.210526315789474</v>
       </c>
     </row>
@@ -696,33 +720,36 @@
         <v>8.0</v>
       </c>
       <c r="O8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.971428571428571</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.383259911894273</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>-0.19490306388081</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>10.0</v>
       </c>
-      <c r="S8" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.11428571428571</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0.521759262850026</v>
       </c>
-      <c r="V8" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
         <v>-0.352941176470588</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>-0.823529411764706</v>
       </c>
     </row>
@@ -770,33 +797,36 @@
         <v>18.0</v>
       </c>
       <c r="O9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.434782608695652</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-0.00926919814198444</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.12795265564328</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>12.0</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>5.0</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>2.26086956521739</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>0.41727241972608</v>
       </c>
-      <c r="V9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
         <v>-0.4375</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -844,33 +874,36 @@
         <v>2.0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0.38095238095238</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>-0.0833333333333344</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>12.0</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>5.0</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>2.46153846153846</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>0.281995781995782</v>
       </c>
-      <c r="V10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W10" t="n">
         <v>0.0</v>
       </c>
       <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -918,33 +951,36 @@
         <v>17.0</v>
       </c>
       <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0.928571428571429</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>-0.159763313609467</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>-0.516699832765449</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>7.0</v>
       </c>
-      <c r="S11" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.71428571428571</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>0.449813070063572</v>
       </c>
-      <c r="V11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W11" t="n">
         <v>0.0</v>
       </c>
       <c r="X11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -992,33 +1028,36 @@
         <v>0.0</v>
       </c>
       <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
         <v>0.8</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>0.801783725737272</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>0.612372435695795</v>
       </c>
-      <c r="R12" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.2</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>0.0171386384010969</v>
       </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W12" t="n">
         <v>0.0</v>
       </c>
       <c r="X12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>-0.375</v>
       </c>
     </row>
@@ -1066,33 +1105,36 @@
         <v>3.0</v>
       </c>
       <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n">
         <v>0.285714285714286</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>-0.174077655955698</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>-0.117609384035096</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>7.0</v>
       </c>
-      <c r="S13" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.42857142857143</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>0.235425685425685</v>
       </c>
-      <c r="V13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X13" t="n">
         <v>-0.625</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>-1.25</v>
       </c>
     </row>
@@ -1140,33 +1182,36 @@
         <v>14.0</v>
       </c>
       <c r="O14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P14" t="n">
         <v>0.8</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.0465948623609602</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>-0.643790440193112</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>6.0</v>
       </c>
-      <c r="S14" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.9</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>0.846528380842106</v>
       </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X14" t="n">
         <v>-0.454545454545455</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>-0.909090909090909</v>
       </c>
     </row>
@@ -1214,33 +1259,36 @@
         <v>0.0</v>
       </c>
       <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>0.125</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>0.592220092263982</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>-0.528270543795374</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>12.0</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>6.0</v>
       </c>
-      <c r="T15" t="n">
-        <v>2.0</v>
-      </c>
       <c r="U15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V15" t="n">
         <v>0.326581743177012</v>
       </c>
-      <c r="V15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X15" t="n">
         <v>0.133333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>0.733333333333333</v>
       </c>
     </row>
@@ -1288,33 +1336,36 @@
         <v>0.0</v>
       </c>
       <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
         <v>0.869565217391304</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>-0.576815437885218</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>-0.788838629966484</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>6.0</v>
       </c>
-      <c r="S16" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V16" t="n">
         <v>0.824323288091404</v>
       </c>
-      <c r="V16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" t="n">
         <v>-0.357142857142857</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>-0.785714285714286</v>
       </c>
     </row>
@@ -1362,33 +1413,36 @@
         <v>21.0</v>
       </c>
       <c r="O17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P17" t="n">
         <v>0.342857142857143</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>0.370885525817333</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>-0.338885991072947</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>9.0</v>
       </c>
-      <c r="S17" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.28571428571429</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>0.332910172878064</v>
       </c>
-      <c r="V17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" t="n">
         <v>-0.470588235294118</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>-1.05882352941176</v>
       </c>
     </row>
@@ -1436,33 +1490,36 @@
         <v>0.0</v>
       </c>
       <c r="O18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P18" t="n">
         <v>0.285714285714286</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>-0.242128626912222</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>0.0251477845384773</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>10.0</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>5.0</v>
       </c>
-      <c r="T18" t="n">
-        <v>2.0</v>
-      </c>
       <c r="U18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V18" t="n">
         <v>0.381939981298337</v>
       </c>
-      <c r="V18" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X18" t="n">
         <v>-0.307692307692308</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>-0.769230769230769</v>
       </c>
     </row>
@@ -1510,33 +1567,36 @@
         <v>2.0</v>
       </c>
       <c r="O19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" t="n">
         <v>0.4</v>
-      </c>
-      <c r="P19" t="e">
-        <v>#N/A</v>
       </c>
       <c r="Q19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S19" t="n">
         <v>6.0</v>
       </c>
-      <c r="S19" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.2</v>
       </c>
-      <c r="U19" t="n">
-        <v>1.0</v>
-      </c>
       <c r="V19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X19" t="n">
         <v>-0.2</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -1584,33 +1644,36 @@
         <v>1.0</v>
       </c>
       <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>0.857492925712544</v>
       </c>
-      <c r="Q20" t="e">
+      <c r="R20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R20" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S20" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T20" t="n">
         <v>2.0</v>
       </c>
       <c r="U20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V20" t="n">
         <v>0.172941176470588</v>
       </c>
-      <c r="V20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X20" t="n">
         <v>-0.166666666666667</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>-0.333333333333333</v>
       </c>
     </row>
@@ -1658,33 +1721,36 @@
         <v>6.0</v>
       </c>
       <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" t="n">
         <v>0.555555555555556</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>-0.124456687897154</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>-0.420534738545046</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>6.0</v>
       </c>
-      <c r="S21" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.72222222222222</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>0.667563343425412</v>
       </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X21" t="n">
         <v>0.181818181818182</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>0.272727272727273</v>
       </c>
     </row>
@@ -1732,33 +1798,36 @@
         <v>1.0</v>
       </c>
       <c r="O22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P22" t="n">
         <v>0.526315789473684</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>-0.109414658648295</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>-0.241241778100851</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>8.0</v>
       </c>
-      <c r="S22" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V22" t="n">
         <v>0.345886459928606</v>
       </c>
-      <c r="V22" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X22" t="n">
         <v>-0.363636363636364</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>-0.727272727272727</v>
       </c>
     </row>
@@ -1806,33 +1875,36 @@
         <v>8.0</v>
       </c>
       <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" t="n">
         <v>0.727272727272727</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>0.67700320038633</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>-0.302281770879171</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>11.0</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>5.0</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>2.36363636363636</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>0.487946324774969</v>
       </c>
-      <c r="V23" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X23" t="n">
         <v>-0.375</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>-0.375</v>
       </c>
     </row>
@@ -1880,33 +1952,36 @@
         <v>0.0</v>
       </c>
       <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P24" t="n">
         <v>0.615384615384615</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>-0.441588043316392</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>-0.158113883008419</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>7.0</v>
       </c>
-      <c r="S24" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.46153846153846</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>0.0945509782860513</v>
       </c>
-      <c r="V24" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X24" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>-0.777777777777778</v>
       </c>
     </row>
@@ -1957,30 +2032,33 @@
         <v>0.0</v>
       </c>
       <c r="P25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>-0.272165526975908</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>-0.375</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>11.0</v>
       </c>
-      <c r="S25" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.7</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>0.443398268398269</v>
       </c>
-      <c r="V25" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X25" t="n">
         <v>-0.8</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>-2.2</v>
       </c>
     </row>
@@ -2028,33 +2106,36 @@
         <v>18.0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>-0.30952380952381</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>-0.185244910300343</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>10.0</v>
       </c>
-      <c r="S26" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U26" t="n">
         <v>2.2</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>0.551959956996898</v>
       </c>
-      <c r="V26" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X26" t="n">
         <v>-0.181818181818182</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>-0.545454545454545</v>
       </c>
     </row>
@@ -2102,33 +2183,36 @@
         <v>6.0</v>
       </c>
       <c r="O27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P27" t="n">
         <v>0.625</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>-0.133801394982387</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>-0.335624311039769</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>8.0</v>
       </c>
-      <c r="S27" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T27" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V27" t="n">
         <v>0.421238191632928</v>
       </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X27" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>1.11111111111111</v>
       </c>
     </row>
@@ -2176,33 +2260,36 @@
         <v>6.0</v>
       </c>
       <c r="O28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P28" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>-0.426401432711221</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>0.158113883008419</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>8.0</v>
       </c>
-      <c r="S28" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T28" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V28" t="n">
         <v>0.27953813104189</v>
       </c>
-      <c r="V28" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X28" t="n">
         <v>-0.222222222222222</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>-0.555555555555556</v>
       </c>
     </row>
@@ -2250,33 +2337,36 @@
         <v>6.0</v>
       </c>
       <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
         <v>0.8</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>0.0385226435233066</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>-0.0606060606060604</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>6.0</v>
       </c>
-      <c r="S29" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V29" t="n">
         <v>0.425625300625301</v>
       </c>
-      <c r="V29" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X29" t="n">
         <v>0.25</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2324,33 +2414,36 @@
         <v>7.0</v>
       </c>
       <c r="O30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P30" t="n">
         <v>0.955223880597015</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>-0.357675820431722</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>-0.602328959920462</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>10.0</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>5.0</v>
       </c>
-      <c r="T30" t="n">
-        <v>2.0</v>
-      </c>
       <c r="U30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V30" t="n">
         <v>0.407802071639644</v>
       </c>
-      <c r="V30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W30" t="n">
         <v>0.0</v>
       </c>
       <c r="X30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>0.0645161290322581</v>
       </c>
     </row>
@@ -2398,33 +2491,36 @@
         <v>6.0</v>
       </c>
       <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="P31" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
         <v>-0.207247260681437</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>13.0</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>6.0</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>2.16666666666667</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>0.436729114652212</v>
       </c>
-      <c r="V31" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W31" t="n">
         <v>0.0</v>
       </c>
       <c r="X31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2472,33 +2568,36 @@
         <v>7.0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="P32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>0.0509647191437625</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>-0.172275028102811</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>12.0</v>
       </c>
-      <c r="S32" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U32" t="n">
         <v>2.6875</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>0.43232421555358</v>
       </c>
-      <c r="V32" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W32" t="n">
         <v>0.0</v>
       </c>
       <c r="X32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>-0.416666666666667</v>
       </c>
     </row>
@@ -2546,33 +2645,36 @@
         <v>5.0</v>
       </c>
       <c r="O33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P33" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>0.082870092530422</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>-0.0983234503758629</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>11.0</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>5.0</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>2.15555555555556</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>0.281158571214722</v>
       </c>
-      <c r="V33" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X33" t="n">
         <v>0.1875</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>0.125</v>
       </c>
     </row>
@@ -2620,33 +2722,36 @@
         <v>1.0</v>
       </c>
       <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P34" t="n">
         <v>0.48780487804878</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>0.21207421783544</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>0.232228134622482</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>9.0</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>5.0</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>1.78048780487805</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>0.321190119050763</v>
       </c>
-      <c r="V34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X34" t="n">
         <v>0.12</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2694,33 +2799,36 @@
         <v>15.0</v>
       </c>
       <c r="O35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P35" t="n">
         <v>0.620689655172414</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>0.0557619871249692</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>-0.0453535308190155</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>10.0</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>5.0</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>2.03448275862069</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>0.413312410217648</v>
       </c>
-      <c r="V35" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W35" t="n">
         <v>0.0</v>
       </c>
       <c r="X35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>-0.230769230769231</v>
       </c>
     </row>
@@ -2768,33 +2876,36 @@
         <v>22.0</v>
       </c>
       <c r="O36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P36" t="n">
         <v>0.76</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>0.0513464826748421</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>-0.313543751847414</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>15.0</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>6.0</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>2.38</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>0.337606721096284</v>
       </c>
-      <c r="V36" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W36" t="n">
         <v>0.0</v>
       </c>
       <c r="X36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>-0.0689655172413793</v>
       </c>
     </row>
@@ -2842,33 +2953,36 @@
         <v>14.0</v>
       </c>
       <c r="O37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P37" t="n">
         <v>0.6</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>-0.409588828784284</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>-0.300190657788549</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>6.0</v>
       </c>
-      <c r="S37" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U37" t="n">
         <v>2.1</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>0.435028799702713</v>
       </c>
-      <c r="V37" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X37" t="n">
         <v>-0.0909090909090909</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>-0.181818181818182</v>
       </c>
     </row>
@@ -2916,33 +3030,36 @@
         <v>2.0</v>
       </c>
       <c r="O38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P38" t="n">
         <v>0.4375</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>0.216770155919184</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>-0.151703700041022</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>12.0</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>6.0</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>2.0625</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>0.369591191191339</v>
       </c>
-      <c r="V38" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X38" t="n">
         <v>-0.272727272727273</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>-0.590909090909091</v>
       </c>
     </row>
@@ -2990,33 +3107,36 @@
         <v>1.0</v>
       </c>
       <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P39" t="n">
         <v>0.714285714285714</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>-0.735661948093456</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>0.220479275922049</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>11.0</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>5.0</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>2.07142857142857</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>0.490364940564578</v>
       </c>
-      <c r="V39" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X39" t="n">
         <v>-0.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3067,30 +3187,33 @@
         <v>0.0</v>
       </c>
       <c r="P40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>-0.703123049310652</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>-1.0</v>
       </c>
-      <c r="R40" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S40" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T40" t="n">
         <v>2.0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X40" t="n">
         <v>0.272727272727273</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>0.0909090909090909</v>
       </c>
     </row>
@@ -3138,33 +3261,36 @@
         <v>0.0</v>
       </c>
       <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P41" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>0.0194422318163417</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>-0.291481358756936</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>9.0</v>
       </c>
-      <c r="S41" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U41" t="n">
         <v>2.08333333333333</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>0.556733149412</v>
       </c>
-      <c r="V41" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X41" t="n">
         <v>0.1</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3212,33 +3338,36 @@
         <v>6.0</v>
       </c>
       <c r="O42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P42" t="n">
         <v>0.533333333333333</v>
       </c>
-      <c r="P42" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R42" t="n">
         <v>-0.534522483824849</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>8.0</v>
       </c>
-      <c r="S42" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U42" t="n">
         <v>2.06666666666667</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>0.601745169082125</v>
       </c>
-      <c r="V42" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X42" t="n">
         <v>0.1</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -3286,33 +3415,36 @@
         <v>13.0</v>
       </c>
       <c r="O43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P43" t="n">
         <v>0.87719298245614</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>0.153360384846485</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>-0.074526026414654</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>11.0</v>
       </c>
-      <c r="S43" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U43" t="n">
         <v>2.24561403508772</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>0.369526693060323</v>
       </c>
-      <c r="V43" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W43" t="n">
         <v>0.0</v>
       </c>
       <c r="X43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>-0.157894736842105</v>
       </c>
     </row>
@@ -3360,33 +3492,36 @@
         <v>10.0</v>
       </c>
       <c r="O44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P44" t="n">
         <v>0.628571428571429</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>-0.388624417536648</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>-0.42655432373467</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>9.0</v>
       </c>
-      <c r="S44" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U44" t="n">
         <v>2.08571428571429</v>
       </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>0.546646611555536</v>
       </c>
-      <c r="V44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X44" t="n">
         <v>-0.28</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -3434,33 +3569,36 @@
         <v>1.0</v>
       </c>
       <c r="O45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P45" t="n">
         <v>0.181818181818182</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>-0.368037369049289</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>-0.833333333333333</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>8.0</v>
       </c>
-      <c r="S45" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T45" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V45" t="n">
         <v>0.54051724137931</v>
       </c>
-      <c r="V45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X45" t="n">
         <v>-0.181818181818182</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>-0.727272727272727</v>
       </c>
     </row>
@@ -3508,33 +3646,36 @@
         <v>9.0</v>
       </c>
       <c r="O46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P46" t="n">
         <v>0.571428571428571</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>-0.467888466915156</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>-0.32252558809752</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>11.0</v>
       </c>
-      <c r="S46" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U46" t="n">
         <v>2.32142857142857</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>0.380763566183307</v>
       </c>
-      <c r="V46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X46" t="n">
         <v>-0.285714285714286</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -3582,33 +3723,36 @@
         <v>0.0</v>
       </c>
       <c r="O47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P47" t="n">
         <v>0.571428571428571</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>-0.540061724867322</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>-0.495073771488337</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>7.0</v>
       </c>
-      <c r="S47" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U47" t="n">
         <v>2.14285714285714</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>0.467532467532467</v>
       </c>
-      <c r="V47" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X47" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>-0.333333333333333</v>
       </c>
     </row>
@@ -3656,33 +3800,36 @@
         <v>7.0</v>
       </c>
       <c r="O48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P48" t="n">
         <v>0.555555555555556</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>-0.14213381090374</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>-0.564512797724888</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>6.0</v>
       </c>
-      <c r="S48" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U48" t="n">
         <v>2.38888888888889</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>0.891287284144427</v>
       </c>
-      <c r="V48" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X48" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>0.777777777777778</v>
       </c>
     </row>
@@ -3730,33 +3877,36 @@
         <v>2.0</v>
       </c>
       <c r="O49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P49" t="n">
         <v>0.363636363636364</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>-0.276385399196283</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>-0.506674517749926</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>6.0</v>
       </c>
-      <c r="S49" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T49" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V49" t="n">
         <v>0.585927960927961</v>
       </c>
-      <c r="V49" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X49" t="n">
         <v>-0.428571428571429</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>-0.571428571428571</v>
       </c>
     </row>
@@ -3804,33 +3954,36 @@
         <v>11.0</v>
       </c>
       <c r="O50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P50" t="n">
         <v>0.915254237288136</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>0.026895910634297</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>-0.209100845845086</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>14.0</v>
       </c>
-      <c r="S50" t="n">
+      <c r="T50" t="n">
         <v>6.0</v>
       </c>
-      <c r="T50" t="n">
+      <c r="U50" t="n">
         <v>2.11864406779661</v>
       </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>0.414058739605762</v>
       </c>
-      <c r="V50" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X50" t="n">
         <v>0.259259259259259</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Y50" t="n">
         <v>0.666666666666667</v>
       </c>
     </row>
@@ -3878,33 +4031,36 @@
         <v>12.0</v>
       </c>
       <c r="O51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P51" t="n">
         <v>0.785714285714286</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>-0.186399684984799</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>-0.290341665899483</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>10.0</v>
       </c>
-      <c r="S51" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U51" t="n">
         <v>2.17857142857143</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>0.467060238425487</v>
       </c>
-      <c r="V51" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X51" t="n">
         <v>-0.294117647058824</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
         <v>-0.470588235294118</v>
       </c>
     </row>
@@ -3952,33 +4108,36 @@
         <v>2.0</v>
       </c>
       <c r="O52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P52" t="n">
         <v>0.5</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>0.120385853085769</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>-0.0374765844497929</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>11.0</v>
       </c>
-      <c r="S52" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U52" t="n">
         <v>2.58333333333333</v>
       </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>0.62379560011139</v>
       </c>
-      <c r="V52" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
         <v>0.125</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
         <v>0.125</v>
       </c>
     </row>
@@ -4029,30 +4188,33 @@
         <v>0.0</v>
       </c>
       <c r="P53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" t="n">
         <v>-0.246932399162398</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>-0.415552552279158</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>12.0</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>5.0</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>2.21428571428571</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>0.355366049928743</v>
       </c>
-      <c r="V53" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
         <v>-0.642857142857143</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>-1.14285714285714</v>
       </c>
     </row>
@@ -4100,33 +4262,36 @@
         <v>6.0</v>
       </c>
       <c r="O54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P54" t="n">
         <v>0.608695652173913</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>-0.454404815823534</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>-0.567319724338923</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>8.0</v>
       </c>
-      <c r="S54" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T54" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V54" t="n">
         <v>0.491553323716929</v>
       </c>
-      <c r="V54" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" t="n">
         <v>-0.166666666666667</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
         <v>-0.166666666666667</v>
       </c>
     </row>
@@ -4174,33 +4339,36 @@
         <v>5.0</v>
       </c>
       <c r="O55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P55" t="n">
         <v>0.765957446808511</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
         <v>-0.158651818378271</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="R55" t="n">
         <v>-0.380901633626451</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>14.0</v>
       </c>
-      <c r="S55" t="n">
+      <c r="T55" t="n">
         <v>6.0</v>
       </c>
-      <c r="T55" t="n">
+      <c r="U55" t="n">
         <v>2.12765957446809</v>
       </c>
-      <c r="U55" t="n">
+      <c r="V55" t="n">
         <v>0.355033864650241</v>
       </c>
-      <c r="V55" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X55" t="n">
         <v>-0.166666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Y55" t="n">
         <v>-0.416666666666667</v>
       </c>
     </row>
@@ -4248,33 +4416,36 @@
         <v>0.0</v>
       </c>
       <c r="O56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P56" t="n">
         <v>0.971428571428571</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>-0.451612903225806</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="n">
         <v>-0.412630579297246</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>10.0</v>
       </c>
-      <c r="S56" t="n">
+      <c r="T56" t="n">
         <v>5.0</v>
       </c>
-      <c r="T56" t="n">
-        <v>2.0</v>
-      </c>
       <c r="U56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V56" t="n">
         <v>0.406022670110483</v>
       </c>
-      <c r="V56" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X56" t="n">
         <v>-0.277777777777778</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Y56" t="n">
         <v>-0.666666666666667</v>
       </c>
     </row>
@@ -4322,33 +4493,36 @@
         <v>2.0</v>
       </c>
       <c r="O57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P57" t="n">
         <v>0.769230769230769</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>0.114380713707379</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>-0.479107664083357</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>8.0</v>
       </c>
-      <c r="S57" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U57" t="n">
         <v>2.07692307692308</v>
       </c>
-      <c r="U57" t="n">
+      <c r="V57" t="n">
         <v>0.254213423128965</v>
       </c>
-      <c r="V57" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
         <v>-0.0714285714285714</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Y57" t="n">
         <v>-0.214285714285714</v>
       </c>
     </row>
@@ -4396,33 +4570,36 @@
         <v>12.0</v>
       </c>
       <c r="O58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P58" t="n">
         <v>0.37037037037037</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>0.0373023548476494</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="R58" t="n">
         <v>-0.406737662397335</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>6.0</v>
       </c>
-      <c r="S58" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V58" t="n">
         <v>0.378123959373959</v>
       </c>
-      <c r="V58" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W58" t="n">
         <v>0.0</v>
       </c>
       <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4470,33 +4647,36 @@
         <v>12.0</v>
       </c>
       <c r="O59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P59" t="n">
         <v>0.378378378378378</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>-0.0425878561352421</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>-0.182979434770522</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>9.0</v>
       </c>
-      <c r="S59" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U59" t="n">
         <v>2.10810810810811</v>
       </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
         <v>0.209637568301278</v>
       </c>
-      <c r="V59" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W59" t="n">
         <v>0.0</v>
       </c>
       <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
         <v>0.0555555555555556</v>
       </c>
     </row>
@@ -4544,33 +4724,36 @@
         <v>13.0</v>
       </c>
       <c r="O60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P60" t="n">
         <v>0.516129032258065</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
         <v>0.0928605541238288</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>-0.288209172922429</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>12.0</v>
       </c>
-      <c r="S60" t="n">
+      <c r="T60" t="n">
         <v>5.0</v>
       </c>
-      <c r="T60" t="n">
+      <c r="U60" t="n">
         <v>2.09677419354839</v>
       </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
         <v>0.438808656631818</v>
       </c>
-      <c r="V60" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" t="n">
         <v>0.0666666666666667</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Y60" t="n">
         <v>-0.0666666666666667</v>
       </c>
     </row>
@@ -4618,33 +4801,36 @@
         <v>8.0</v>
       </c>
       <c r="O61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P61" t="n">
         <v>0.916666666666667</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
         <v>0.0303030303030303</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="n">
         <v>-0.719146519960792</v>
       </c>
-      <c r="R61" t="n">
+      <c r="S61" t="n">
         <v>12.0</v>
       </c>
-      <c r="S61" t="n">
+      <c r="T61" t="n">
         <v>5.0</v>
       </c>
-      <c r="T61" t="n">
+      <c r="U61" t="n">
         <v>1.58333333333333</v>
       </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
         <v>0.30570476358267</v>
       </c>
-      <c r="V61" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" t="n">
         <v>0.0769230769230769</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Y61" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4692,33 +4878,36 @@
         <v>12.0</v>
       </c>
       <c r="O62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>0.179331306990882</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>-0.129411764705883</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>8.0</v>
       </c>
-      <c r="S62" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T62" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V62" t="n">
         <v>0.40819630344831</v>
       </c>
-      <c r="V62" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" t="n">
         <v>-0.363636363636364</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Y62" t="n">
         <v>-1.18181818181818</v>
       </c>
     </row>
@@ -4766,33 +4955,36 @@
         <v>2.0</v>
       </c>
       <c r="O63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P63" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>0.105622850806897</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="R63" t="n">
         <v>-0.29000083395536</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>13.0</v>
       </c>
-      <c r="S63" t="n">
+      <c r="T63" t="n">
         <v>6.0</v>
       </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>2.18181818181818</v>
       </c>
-      <c r="U63" t="n">
+      <c r="V63" t="n">
         <v>0.456968593979393</v>
       </c>
-      <c r="V63" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" t="n">
         <v>-0.470588235294118</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Y63" t="n">
         <v>-1.23529411764706</v>
       </c>
     </row>
@@ -4840,33 +5032,36 @@
         <v>4.0</v>
       </c>
       <c r="O64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P64" t="n">
         <v>0.923076923076923</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>-0.0617620756663045</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>-0.255139928853083</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>7.0</v>
       </c>
-      <c r="S64" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U64" t="n">
         <v>2.30769230769231</v>
       </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
         <v>0.601791437728938</v>
       </c>
-      <c r="V64" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X64" t="n">
         <v>0.3</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Y64" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -4914,33 +5109,36 @@
         <v>6.0</v>
       </c>
       <c r="O65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P65" t="n">
         <v>0.521739130434783</v>
       </c>
-      <c r="P65" t="n">
+      <c r="Q65" t="n">
         <v>-0.0840310453506318</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="R65" t="n">
         <v>-0.351485397609665</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>16.0</v>
       </c>
-      <c r="S65" t="n">
+      <c r="T65" t="n">
         <v>7.0</v>
       </c>
-      <c r="T65" t="n">
+      <c r="U65" t="n">
         <v>2.30434782608696</v>
       </c>
-      <c r="U65" t="n">
+      <c r="V65" t="n">
         <v>0.335830251075269</v>
       </c>
-      <c r="V65" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n">
         <v>-0.176470588235294</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Y65" t="n">
         <v>-0.529411764705882</v>
       </c>
     </row>
@@ -4988,33 +5186,36 @@
         <v>0.0</v>
       </c>
       <c r="O66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P66" t="n">
         <v>0.962962962962963</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>0.665289256198347</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="R66" t="n">
         <v>-0.36007774482125</v>
       </c>
-      <c r="R66" t="n">
+      <c r="S66" t="n">
         <v>8.0</v>
       </c>
-      <c r="S66" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U66" t="n">
         <v>1.59259259259259</v>
       </c>
-      <c r="U66" t="n">
+      <c r="V66" t="n">
         <v>0.494453463203463</v>
       </c>
-      <c r="V66" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
         <v>-0.428571428571429</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Y66" t="n">
         <v>-1.14285714285714</v>
       </c>
     </row>
@@ -5062,33 +5263,36 @@
         <v>23.0</v>
       </c>
       <c r="O67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P67" t="n">
         <v>0.681818181818182</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
         <v>-0.0181761709266534</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>-0.335585386693593</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>12.0</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>6.0</v>
       </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>2.11363636363636</v>
       </c>
-      <c r="U67" t="n">
+      <c r="V67" t="n">
         <v>0.420555026757518</v>
       </c>
-      <c r="V67" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
         <v>-0.125</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Y67" t="n">
         <v>-0.291666666666667</v>
       </c>
     </row>
@@ -5136,33 +5340,36 @@
         <v>4.0</v>
       </c>
       <c r="O68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P68" t="n">
         <v>0.4</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>0.644463399364121</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>-0.190879042308296</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>11.0</v>
       </c>
-      <c r="S68" t="n">
+      <c r="T68" t="n">
         <v>6.0</v>
       </c>
-      <c r="T68" t="n">
+      <c r="U68" t="n">
         <v>2.12</v>
       </c>
-      <c r="U68" t="n">
+      <c r="V68" t="n">
         <v>0.344270608880871</v>
       </c>
-      <c r="V68" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
         <v>-0.0555555555555556</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Y68" t="n">
         <v>-0.0555555555555556</v>
       </c>
     </row>
@@ -5210,33 +5417,36 @@
         <v>3.0</v>
       </c>
       <c r="O69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P69" t="n">
         <v>0.941176470588235</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
         <v>-0.064033572560907</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="n">
         <v>-0.0899330432654074</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>13.0</v>
       </c>
-      <c r="S69" t="n">
+      <c r="T69" t="n">
         <v>5.0</v>
       </c>
-      <c r="T69" t="n">
+      <c r="U69" t="n">
         <v>2.23529411764706</v>
       </c>
-      <c r="U69" t="n">
+      <c r="V69" t="n">
         <v>0.324564284553287</v>
       </c>
-      <c r="V69" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n">
         <v>-0.0769230769230769</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Y69" t="n">
         <v>-0.384615384615385</v>
       </c>
     </row>
@@ -5284,33 +5494,36 @@
         <v>8.0</v>
       </c>
       <c r="O70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P70" t="n">
         <v>0.838709677419355</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
         <v>0.242503974129219</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="n">
         <v>-0.226941476538082</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>13.0</v>
       </c>
-      <c r="S70" t="n">
+      <c r="T70" t="n">
         <v>6.0</v>
       </c>
-      <c r="T70" t="n">
+      <c r="U70" t="n">
         <v>1.83870967741935</v>
       </c>
-      <c r="U70" t="n">
+      <c r="V70" t="n">
         <v>0.534205142962528</v>
       </c>
-      <c r="V70" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
         <v>-0.235294117647059</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Y70" t="n">
         <v>-0.647058823529412</v>
       </c>
     </row>
@@ -5361,30 +5574,33 @@
         <v>0.0</v>
       </c>
       <c r="P71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" t="n">
         <v>-0.0865484644815828</v>
       </c>
-      <c r="Q71" t="e">
+      <c r="R71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>10.0</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>5.0</v>
       </c>
-      <c r="T71" t="n">
-        <v>2.0</v>
-      </c>
       <c r="U71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V71" t="n">
         <v>0.461353378279774</v>
       </c>
-      <c r="V71" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
         <v>-0.181818181818182</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Y71" t="n">
         <v>-0.363636363636364</v>
       </c>
     </row>
@@ -5432,33 +5648,36 @@
         <v>8.0</v>
       </c>
       <c r="O72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P72" t="n">
         <v>0.421052631578947</v>
       </c>
-      <c r="P72" t="n">
+      <c r="Q72" t="n">
         <v>-0.577410912041449</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="R72" t="n">
         <v>-0.691908756505667</v>
       </c>
-      <c r="R72" t="n">
+      <c r="S72" t="n">
         <v>11.0</v>
       </c>
-      <c r="S72" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U72" t="n">
         <v>1.89473684210526</v>
       </c>
-      <c r="U72" t="n">
+      <c r="V72" t="n">
         <v>0.536760565365225</v>
       </c>
-      <c r="V72" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n">
         <v>-0.0625</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Y72" t="n">
         <v>-0.1875</v>
       </c>
     </row>
@@ -5506,33 +5725,36 @@
         <v>8.0</v>
       </c>
       <c r="O73" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P73" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="P73" t="n">
+      <c r="Q73" t="n">
         <v>-0.285714285714284</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="R73" t="n">
         <v>-0.456070170039655</v>
       </c>
-      <c r="R73" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S73" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U73" t="n">
         <v>1.55555555555556</v>
       </c>
-      <c r="U73" t="n">
+      <c r="V73" t="n">
         <v>0.200892857142857</v>
       </c>
-      <c r="V73" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X73" t="n">
         <v>-0.666666666666667</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Y73" t="n">
         <v>-2.0</v>
       </c>
     </row>
@@ -5580,33 +5802,36 @@
         <v>0.0</v>
       </c>
       <c r="O74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P74" t="n">
         <v>0.941176470588235</v>
       </c>
-      <c r="P74" t="n">
+      <c r="Q74" t="n">
         <v>-0.382113821138212</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="R74" t="n">
         <v>-0.168703402120608</v>
-      </c>
-      <c r="R74" t="n">
-        <v>5.0</v>
       </c>
       <c r="S74" t="n">
         <v>5.0</v>
       </c>
       <c r="T74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U74" t="n">
         <v>1.11764705882353</v>
       </c>
-      <c r="U74" t="n">
+      <c r="V74" t="n">
         <v>0.38839512817317</v>
       </c>
-      <c r="V74" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X74" t="n">
         <v>-0.375</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Y74" t="n">
         <v>-0.875</v>
       </c>
     </row>
@@ -5654,33 +5879,36 @@
         <v>18.0</v>
       </c>
       <c r="O75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P75" t="n">
         <v>0.709677419354839</v>
       </c>
-      <c r="P75" t="n">
+      <c r="Q75" t="n">
         <v>0.0954459080591377</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="R75" t="n">
         <v>-0.611368610603838</v>
       </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
         <v>6.0</v>
       </c>
-      <c r="S75" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U75" t="n">
         <v>1.09677419354839</v>
       </c>
-      <c r="U75" t="n">
+      <c r="V75" t="n">
         <v>0.691417403635316</v>
       </c>
-      <c r="V75" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X75" t="n">
         <v>-0.235294117647059</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Y75" t="n">
         <v>-0.764705882352941</v>
       </c>
     </row>
@@ -5728,33 +5956,36 @@
         <v>4.0</v>
       </c>
       <c r="O76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P76" t="n">
         <v>0.923076923076923</v>
       </c>
-      <c r="P76" t="n">
+      <c r="Q76" t="n">
         <v>-0.405586852044822</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="R76" t="n">
         <v>-0.504964118546525</v>
       </c>
-      <c r="R76" t="n">
+      <c r="S76" t="n">
         <v>8.0</v>
       </c>
-      <c r="S76" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U76" t="n">
         <v>1.46153846153846</v>
       </c>
-      <c r="U76" t="n">
+      <c r="V76" t="n">
         <v>0.648558718734157</v>
       </c>
-      <c r="V76" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X76" t="n">
         <v>-0.142857142857143</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Y76" t="n">
         <v>-0.428571428571429</v>
       </c>
     </row>
@@ -5802,33 +6033,36 @@
         <v>7.0</v>
       </c>
       <c r="O77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P77" t="n">
         <v>0.615384615384615</v>
       </c>
-      <c r="P77" t="n">
+      <c r="Q77" t="n">
         <v>-0.131132632078241</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="R77" t="n">
         <v>-0.482263748382413</v>
       </c>
-      <c r="R77" t="n">
-        <v>2.0</v>
-      </c>
       <c r="S77" t="n">
         <v>2.0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V77" t="n">
         <v>0.865</v>
       </c>
-      <c r="V77" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X77" t="n">
         <v>0.142857142857143</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Y77" t="n">
         <v>0.285714285714286</v>
       </c>
     </row>
@@ -5876,33 +6110,36 @@
         <v>10.0</v>
       </c>
       <c r="O78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P78" t="n">
         <v>0.981132075471698</v>
       </c>
-      <c r="P78" t="n">
+      <c r="Q78" t="n">
         <v>0.0311827956989256</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="R78" t="n">
         <v>-0.215912578160991</v>
       </c>
-      <c r="R78" t="n">
+      <c r="S78" t="n">
         <v>12.0</v>
       </c>
-      <c r="S78" t="n">
+      <c r="T78" t="n">
         <v>5.0</v>
       </c>
-      <c r="T78" t="n">
+      <c r="U78" t="n">
         <v>2.16981132075472</v>
       </c>
-      <c r="U78" t="n">
+      <c r="V78" t="n">
         <v>0.368347555036313</v>
       </c>
-      <c r="V78" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X78" t="n">
         <v>-0.294117647058824</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Y78" t="n">
         <v>-0.882352941176471</v>
       </c>
     </row>
@@ -5950,33 +6187,36 @@
         <v>5.0</v>
       </c>
       <c r="O79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P79" t="n">
         <v>0.347826086956522</v>
       </c>
-      <c r="P79" t="n">
+      <c r="Q79" t="n">
         <v>-0.425862750301522</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="R79" t="n">
         <v>-0.402745439015338</v>
       </c>
-      <c r="R79" t="n">
+      <c r="S79" t="n">
         <v>12.0</v>
       </c>
-      <c r="S79" t="n">
+      <c r="T79" t="n">
         <v>6.0</v>
       </c>
-      <c r="T79" t="n">
+      <c r="U79" t="n">
         <v>1.95652173913043</v>
       </c>
-      <c r="U79" t="n">
+      <c r="V79" t="n">
         <v>0.493044975521865</v>
       </c>
-      <c r="V79" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X79" t="n">
         <v>-0.0526315789473684</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Y79" t="n">
         <v>0.0526315789473684</v>
       </c>
     </row>
@@ -6024,33 +6264,36 @@
         <v>7.0</v>
       </c>
       <c r="O80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P80" t="n">
         <v>0.571428571428571</v>
       </c>
-      <c r="P80" t="n">
+      <c r="Q80" t="n">
         <v>0.273936658370926</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="R80" t="n">
         <v>0.0187372396005535</v>
       </c>
-      <c r="R80" t="n">
+      <c r="S80" t="n">
         <v>7.0</v>
       </c>
-      <c r="S80" t="n">
+      <c r="T80" t="n">
         <v>5.0</v>
       </c>
-      <c r="T80" t="n">
+      <c r="U80" t="n">
         <v>1.35714285714286</v>
       </c>
-      <c r="U80" t="n">
+      <c r="V80" t="n">
         <v>0.370675158719377</v>
       </c>
-      <c r="V80" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X80" t="n">
         <v>-0.5625</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Y80" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -6098,33 +6341,36 @@
         <v>2.0</v>
       </c>
       <c r="O81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P81" t="n">
         <v>0.5</v>
       </c>
-      <c r="P81" t="n">
+      <c r="Q81" t="n">
         <v>0.107417231105915</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="R81" t="n">
         <v>-0.21229795697371</v>
       </c>
-      <c r="R81" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S81" t="n">
         <v>4.0</v>
       </c>
       <c r="T81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U81" t="n">
         <v>1.16666666666667</v>
       </c>
-      <c r="U81" t="n">
+      <c r="V81" t="n">
         <v>0.313096483026172</v>
       </c>
-      <c r="V81" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X81" t="n">
         <v>-0.0833333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Y81" t="n">
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -6172,33 +6418,36 @@
         <v>15.0</v>
       </c>
       <c r="O82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P82" t="n">
         <v>0.5</v>
       </c>
-      <c r="P82" t="n">
+      <c r="Q82" t="n">
         <v>0.050767308256681</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="R82" t="n">
         <v>-0.0820638135156419</v>
       </c>
-      <c r="R82" t="n">
+      <c r="S82" t="n">
         <v>6.0</v>
       </c>
-      <c r="S82" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T82" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U82" t="n">
         <v>1.63888888888889</v>
       </c>
-      <c r="U82" t="n">
+      <c r="V82" t="n">
         <v>0.203901005941949</v>
       </c>
-      <c r="V82" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X82" t="n">
         <v>-0.2</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Y82" t="n">
         <v>-0.266666666666667</v>
       </c>
     </row>
@@ -6246,33 +6495,36 @@
         <v>5.0</v>
       </c>
       <c r="O83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P83" t="n">
         <v>0.421052631578947</v>
       </c>
-      <c r="P83" t="n">
+      <c r="Q83" t="n">
         <v>-0.184197099403252</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="R83" t="n">
         <v>-0.667526722719589</v>
       </c>
-      <c r="R83" t="n">
+      <c r="S83" t="n">
         <v>5.0</v>
       </c>
-      <c r="S83" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T83" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U83" t="n">
         <v>1.10526315789474</v>
       </c>
-      <c r="U83" t="n">
+      <c r="V83" t="n">
         <v>0.466776497196326</v>
       </c>
-      <c r="V83" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X83" t="n">
         <v>-0.357142857142857</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Y83" t="n">
         <v>-0.857142857142857</v>
       </c>
     </row>
@@ -6320,33 +6572,36 @@
         <v>4.0</v>
       </c>
       <c r="O84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P84" t="n">
         <v>0.62962962962963</v>
       </c>
-      <c r="P84" t="n">
+      <c r="Q84" t="n">
         <v>0.171368283552106</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="R84" t="n">
         <v>-0.333236109356207</v>
       </c>
-      <c r="R84" t="n">
+      <c r="S84" t="n">
         <v>6.0</v>
       </c>
-      <c r="S84" t="n">
+      <c r="T84" t="n">
         <v>5.0</v>
       </c>
-      <c r="T84" t="n">
+      <c r="U84" t="n">
         <v>1.05555555555556</v>
       </c>
-      <c r="U84" t="n">
+      <c r="V84" t="n">
         <v>0.319697767096299</v>
       </c>
-      <c r="V84" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X84" t="n">
         <v>-0.304347826086957</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Y84" t="n">
         <v>-0.826086956521739</v>
       </c>
     </row>
@@ -6394,33 +6649,36 @@
         <v>5.0</v>
       </c>
       <c r="O85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P85" t="n">
         <v>0.258064516129032</v>
       </c>
-      <c r="P85" t="n">
+      <c r="Q85" t="n">
         <v>-0.112068342133555</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="R85" t="n">
         <v>-0.118246001472409</v>
       </c>
-      <c r="R85" t="n">
+      <c r="S85" t="n">
         <v>12.0</v>
       </c>
-      <c r="S85" t="n">
+      <c r="T85" t="n">
         <v>6.0</v>
       </c>
-      <c r="T85" t="n">
+      <c r="U85" t="n">
         <v>1.74193548387097</v>
       </c>
-      <c r="U85" t="n">
+      <c r="V85" t="n">
         <v>0.381210980415533</v>
       </c>
-      <c r="V85" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W85" t="n">
         <v>0.0</v>
       </c>
       <c r="X85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y85" t="n">
         <v>-0.227272727272727</v>
       </c>
     </row>
@@ -6468,33 +6726,36 @@
         <v>9.0</v>
       </c>
       <c r="O86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P86" t="n">
         <v>0.82051282051282</v>
       </c>
-      <c r="P86" t="n">
+      <c r="Q86" t="n">
         <v>0.283887486978835</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="R86" t="n">
         <v>-0.161114687239305</v>
       </c>
-      <c r="R86" t="n">
+      <c r="S86" t="n">
         <v>11.0</v>
       </c>
-      <c r="S86" t="n">
+      <c r="T86" t="n">
         <v>7.0</v>
       </c>
-      <c r="T86" t="n">
+      <c r="U86" t="n">
         <v>1.15384615384615</v>
       </c>
-      <c r="U86" t="n">
+      <c r="V86" t="n">
         <v>0.293292319720005</v>
       </c>
-      <c r="V86" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X86" t="n">
         <v>-0.588235294117647</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Y86" t="n">
         <v>-1.76470588235294</v>
       </c>
     </row>
@@ -6542,33 +6803,36 @@
         <v>0.0</v>
       </c>
       <c r="O87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P87" t="n">
         <v>0.705882352941177</v>
       </c>
-      <c r="P87" t="n">
+      <c r="Q87" t="n">
         <v>0.484767985741633</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="R87" t="n">
         <v>-0.505590053081692</v>
       </c>
-      <c r="R87" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S87" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U87" t="n">
         <v>1.29411764705882</v>
       </c>
-      <c r="U87" t="n">
+      <c r="V87" t="n">
         <v>0.020434203101384</v>
       </c>
-      <c r="V87" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X87" t="n">
         <v>-0.125</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Y87" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6616,33 +6880,36 @@
         <v>7.0</v>
       </c>
       <c r="O88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P88" t="n">
         <v>0.428571428571429</v>
       </c>
-      <c r="P88" t="n">
+      <c r="Q88" t="n">
         <v>-0.292152362922538</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="R88" t="n">
         <v>-0.973123680201904</v>
       </c>
-      <c r="R88" t="n">
+      <c r="S88" t="n">
         <v>7.0</v>
       </c>
-      <c r="S88" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U88" t="n">
         <v>1.28571428571429</v>
       </c>
-      <c r="U88" t="n">
+      <c r="V88" t="n">
         <v>0.504807692307693</v>
       </c>
-      <c r="V88" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X88" t="n">
         <v>-0.5</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Y88" t="n">
         <v>-1.16666666666667</v>
       </c>
     </row>
@@ -6690,33 +6957,36 @@
         <v>22.0</v>
       </c>
       <c r="O89" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P89" t="n">
         <v>0.408163265306122</v>
       </c>
-      <c r="P89" t="n">
+      <c r="Q89" t="n">
         <v>0.0901303256942752</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="R89" t="n">
         <v>-0.187500469475606</v>
       </c>
-      <c r="R89" t="n">
+      <c r="S89" t="n">
         <v>8.0</v>
       </c>
-      <c r="S89" t="n">
+      <c r="T89" t="n">
         <v>5.0</v>
       </c>
-      <c r="T89" t="n">
+      <c r="U89" t="n">
         <v>1.51020408163265</v>
       </c>
-      <c r="U89" t="n">
+      <c r="V89" t="n">
         <v>0.382456479616582</v>
       </c>
-      <c r="V89" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X89" t="n">
         <v>-0.35</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Y89" t="n">
         <v>-0.95</v>
       </c>
     </row>
@@ -6764,33 +7034,36 @@
         <v>1.0</v>
       </c>
       <c r="O90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P90" t="n">
         <v>0.363636363636364</v>
       </c>
-      <c r="P90" t="n">
+      <c r="Q90" t="n">
         <v>-0.894754041802348</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="R90" t="n">
         <v>-0.134715062810913</v>
-      </c>
-      <c r="R90" t="n">
-        <v>5.0</v>
       </c>
       <c r="S90" t="n">
         <v>5.0</v>
       </c>
       <c r="T90" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V90" t="n">
         <v>0.350716599821198</v>
       </c>
-      <c r="V90" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X90" t="n">
         <v>-0.1</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Y90" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -6838,33 +7111,36 @@
         <v>7.0</v>
       </c>
       <c r="O91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P91" t="n">
         <v>0.142857142857143</v>
       </c>
-      <c r="P91" t="n">
+      <c r="Q91" t="n">
         <v>0.0761386987626897</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="R91" t="n">
         <v>-0.551374041221867</v>
       </c>
-      <c r="R91" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S91" t="n">
         <v>3.0</v>
       </c>
       <c r="T91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U91" t="n">
         <v>1.07142857142857</v>
       </c>
-      <c r="U91" t="n">
+      <c r="V91" t="n">
         <v>0.797506313131313</v>
       </c>
-      <c r="V91" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X91" t="n">
         <v>0.3</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Y91" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -6915,30 +7191,33 @@
         <v>0.0</v>
       </c>
       <c r="P92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q92" t="n">
         <v>0.346410161513777</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="R92" t="n">
         <v>-0.464491276907602</v>
       </c>
-      <c r="R92" t="n">
+      <c r="S92" t="n">
         <v>5.0</v>
       </c>
-      <c r="S92" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U92" t="n">
         <v>1.36363636363636</v>
       </c>
-      <c r="U92" t="n">
+      <c r="V92" t="n">
         <v>0.631138768638768</v>
       </c>
-      <c r="V92" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X92" t="n">
         <v>-0.625</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Y92" t="n">
         <v>-1.875</v>
       </c>
     </row>
@@ -6986,33 +7265,36 @@
         <v>4.0</v>
       </c>
       <c r="O93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P93" t="n">
         <v>0.625</v>
       </c>
-      <c r="P93" t="n">
+      <c r="Q93" t="n">
         <v>-0.36406772895811</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="R93" t="n">
         <v>-0.691905363235615</v>
       </c>
-      <c r="R93" t="n">
+      <c r="S93" t="n">
         <v>5.0</v>
       </c>
-      <c r="S93" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U93" t="n">
         <v>1.4375</v>
       </c>
-      <c r="U93" t="n">
+      <c r="V93" t="n">
         <v>0.669101731601732</v>
       </c>
-      <c r="V93" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X93" t="n">
         <v>0.125</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Y93" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7060,33 +7342,36 @@
         <v>0.0</v>
       </c>
       <c r="O94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P94" t="n">
         <v>0.125</v>
       </c>
-      <c r="P94" t="n">
+      <c r="Q94" t="n">
         <v>-0.0262703468746367</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="R94" t="n">
         <v>-0.160128153805087</v>
       </c>
-      <c r="R94" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S94" t="n">
         <v>4.0</v>
       </c>
       <c r="T94" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V94" t="n">
         <v>0.551425395256917</v>
       </c>
-      <c r="V94" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X94" t="n">
         <v>-0.583333333333333</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Y94" t="n">
         <v>-1.58333333333333</v>
       </c>
     </row>
@@ -7134,33 +7419,36 @@
         <v>5.0</v>
       </c>
       <c r="O95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P95" t="n">
         <v>0.352941176470588</v>
       </c>
-      <c r="P95" t="n">
+      <c r="Q95" t="n">
         <v>0.226191933316983</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="R95" t="n">
         <v>-0.436435780471985</v>
       </c>
-      <c r="R95" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S95" t="n">
         <v>4.0</v>
       </c>
       <c r="T95" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V95" t="n">
         <v>0.571623771259167</v>
       </c>
-      <c r="V95" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X95" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Y95" t="n">
         <v>-0.666666666666667</v>
       </c>
     </row>
@@ -7208,33 +7496,36 @@
         <v>8.0</v>
       </c>
       <c r="O96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P96" t="n">
         <v>0.75</v>
       </c>
-      <c r="P96" t="n">
+      <c r="Q96" t="n">
         <v>0.516082965653581</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="R96" t="n">
         <v>-0.288074415566344</v>
       </c>
-      <c r="R96" t="n">
+      <c r="S96" t="n">
         <v>9.0</v>
       </c>
-      <c r="S96" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T96" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U96" t="n">
         <v>1.16666666666667</v>
       </c>
-      <c r="U96" t="n">
+      <c r="V96" t="n">
         <v>0.532612610783485</v>
       </c>
-      <c r="V96" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W96" t="n">
         <v>0.0</v>
       </c>
       <c r="X96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y96" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -7282,33 +7573,36 @@
         <v>3.0</v>
       </c>
       <c r="O97" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P97" t="n">
         <v>0.857142857142857</v>
       </c>
-      <c r="P97" t="n">
+      <c r="Q97" t="n">
         <v>0.176888875125143</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="R97" t="n">
         <v>-0.143083641688718</v>
       </c>
-      <c r="R97" t="n">
+      <c r="S97" t="n">
         <v>9.0</v>
       </c>
-      <c r="S97" t="n">
+      <c r="T97" t="n">
         <v>6.0</v>
       </c>
-      <c r="T97" t="n">
+      <c r="U97" t="n">
         <v>1.51428571428571</v>
       </c>
-      <c r="U97" t="n">
+      <c r="V97" t="n">
         <v>0.096075290135563</v>
       </c>
-      <c r="V97" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X97" t="n">
         <v>-0.363636363636364</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Y97" t="n">
         <v>-0.954545454545455</v>
       </c>
     </row>
@@ -7356,33 +7650,36 @@
         <v>0.0</v>
       </c>
       <c r="O98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P98" t="n">
         <v>0.952380952380952</v>
       </c>
-      <c r="P98" t="n">
+      <c r="Q98" t="n">
         <v>0.295718434854087</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="R98" t="n">
         <v>-0.643824767054932</v>
       </c>
-      <c r="R98" t="n">
+      <c r="S98" t="n">
         <v>7.0</v>
       </c>
-      <c r="S98" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T98" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U98" t="n">
         <v>1.42857142857143</v>
       </c>
-      <c r="U98" t="n">
+      <c r="V98" t="n">
         <v>0.411994929202275</v>
       </c>
-      <c r="V98" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X98" t="n">
         <v>0.1</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Y98" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -7430,33 +7727,36 @@
         <v>14.0</v>
       </c>
       <c r="O99" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P99" t="n">
         <v>0.923076923076923</v>
       </c>
-      <c r="P99" t="n">
+      <c r="Q99" t="n">
         <v>-0.355460778649819</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="R99" t="n">
         <v>-0.102927732636086</v>
       </c>
-      <c r="R99" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S99" t="n">
         <v>4.0</v>
       </c>
       <c r="T99" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V99" t="n">
         <v>0.346544506691566</v>
       </c>
-      <c r="V99" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W99" t="n">
         <v>0.0</v>
       </c>
       <c r="X99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y99" t="n">
         <v>0.272727272727273</v>
       </c>
     </row>
@@ -7504,33 +7804,36 @@
         <v>4.0</v>
       </c>
       <c r="O100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P100" t="n">
         <v>0.538461538461538</v>
       </c>
-      <c r="P100" t="n">
+      <c r="Q100" t="n">
         <v>-0.309446070457071</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="R100" t="n">
         <v>-0.0911895581551537</v>
       </c>
-      <c r="R100" t="n">
+      <c r="S100" t="n">
         <v>11.0</v>
       </c>
-      <c r="S100" t="n">
+      <c r="T100" t="n">
         <v>5.0</v>
       </c>
-      <c r="T100" t="n">
+      <c r="U100" t="n">
         <v>2.30769230769231</v>
       </c>
-      <c r="U100" t="n">
+      <c r="V100" t="n">
         <v>0.44252245200521</v>
       </c>
-      <c r="V100" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W100" t="n">
         <v>0.0</v>
       </c>
       <c r="X100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y100" t="n">
         <v>-0.307692307692308</v>
       </c>
     </row>
@@ -7578,33 +7881,36 @@
         <v>4.0</v>
       </c>
       <c r="O101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P101" t="n">
         <v>0.214285714285714</v>
       </c>
-      <c r="P101" t="n">
+      <c r="Q101" t="n">
         <v>-0.0865560978686087</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="R101" t="n">
         <v>-0.119260230730488</v>
       </c>
-      <c r="R101" t="n">
+      <c r="S101" t="n">
         <v>12.0</v>
       </c>
-      <c r="S101" t="n">
+      <c r="T101" t="n">
         <v>6.0</v>
       </c>
-      <c r="T101" t="n">
+      <c r="U101" t="n">
         <v>1.82142857142857</v>
       </c>
-      <c r="U101" t="n">
+      <c r="V101" t="n">
         <v>0.248162222202546</v>
       </c>
-      <c r="V101" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X101" t="n">
         <v>-0.105263157894737</v>
       </c>
-      <c r="X101" t="n">
+      <c r="Y101" t="n">
         <v>-0.473684210526316</v>
       </c>
     </row>

--- a/data/study2germany_indicatorsCAMs_long.xlsx
+++ b/data/study2germany_indicatorsCAMs_long.xlsx
@@ -258,7 +258,7 @@
         <v>6.0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.642857142857143</v>
@@ -335,7 +335,7 @@
         <v>25.0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="P3" t="n">
         <v>0.981132075471698</v>
@@ -412,7 +412,7 @@
         <v>4.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P4" t="n">
         <v>0.461538461538462</v>
@@ -489,7 +489,7 @@
         <v>3.0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P5" t="n">
         <v>0.75</v>
@@ -643,7 +643,7 @@
         <v>8.0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P7" t="n">
         <v>0.3125</v>
@@ -797,7 +797,7 @@
         <v>18.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="P9" t="n">
         <v>0.434782608695652</v>
@@ -874,7 +874,7 @@
         <v>2.0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P10" t="n">
         <v>1.0</v>
@@ -951,7 +951,7 @@
         <v>17.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.928571428571429</v>
@@ -1413,7 +1413,7 @@
         <v>21.0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="P17" t="n">
         <v>0.342857142857143</v>
@@ -1644,7 +1644,7 @@
         <v>1.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P20" t="n">
         <v>0.666666666666667</v>
@@ -1798,7 +1798,7 @@
         <v>1.0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" t="n">
         <v>0.526315789473684</v>
@@ -1875,7 +1875,7 @@
         <v>8.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="P23" t="n">
         <v>0.727272727272727</v>
@@ -2106,7 +2106,7 @@
         <v>18.0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="P26" t="n">
         <v>1.0</v>
@@ -2183,7 +2183,7 @@
         <v>6.0</v>
       </c>
       <c r="O27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P27" t="n">
         <v>0.625</v>
@@ -2414,7 +2414,7 @@
         <v>7.0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" t="n">
         <v>0.955223880597015</v>
@@ -2568,7 +2568,7 @@
         <v>7.0</v>
       </c>
       <c r="O32" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="P32" t="n">
         <v>0.0</v>
@@ -2645,7 +2645,7 @@
         <v>5.0</v>
       </c>
       <c r="O33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P33" t="n">
         <v>0.888888888888889</v>
@@ -2722,7 +2722,7 @@
         <v>1.0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P34" t="n">
         <v>0.48780487804878</v>
@@ -2799,7 +2799,7 @@
         <v>15.0</v>
       </c>
       <c r="O35" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="P35" t="n">
         <v>0.620689655172414</v>
@@ -2876,7 +2876,7 @@
         <v>22.0</v>
       </c>
       <c r="O36" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="P36" t="n">
         <v>0.76</v>
@@ -2953,7 +2953,7 @@
         <v>14.0</v>
       </c>
       <c r="O37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="P37" t="n">
         <v>0.6</v>
@@ -3030,7 +3030,7 @@
         <v>2.0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P38" t="n">
         <v>0.4375</v>
@@ -3107,7 +3107,7 @@
         <v>1.0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P39" t="n">
         <v>0.714285714285714</v>
@@ -3338,7 +3338,7 @@
         <v>6.0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P42" t="n">
         <v>0.533333333333333</v>
@@ -3415,7 +3415,7 @@
         <v>13.0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="P43" t="n">
         <v>0.87719298245614</v>
@@ -3492,7 +3492,7 @@
         <v>10.0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P44" t="n">
         <v>0.628571428571429</v>
@@ -3646,7 +3646,7 @@
         <v>9.0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P46" t="n">
         <v>0.571428571428571</v>
@@ -3800,7 +3800,7 @@
         <v>7.0</v>
       </c>
       <c r="O48" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P48" t="n">
         <v>0.555555555555556</v>
@@ -3877,7 +3877,7 @@
         <v>2.0</v>
       </c>
       <c r="O49" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P49" t="n">
         <v>0.363636363636364</v>
@@ -3954,7 +3954,7 @@
         <v>11.0</v>
       </c>
       <c r="O50" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="P50" t="n">
         <v>0.915254237288136</v>
@@ -4108,7 +4108,7 @@
         <v>2.0</v>
       </c>
       <c r="O52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P52" t="n">
         <v>0.5</v>
@@ -4339,7 +4339,7 @@
         <v>5.0</v>
       </c>
       <c r="O55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P55" t="n">
         <v>0.765957446808511</v>
@@ -4570,7 +4570,7 @@
         <v>12.0</v>
       </c>
       <c r="O58" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P58" t="n">
         <v>0.37037037037037</v>
@@ -4647,7 +4647,7 @@
         <v>12.0</v>
       </c>
       <c r="O59" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="P59" t="n">
         <v>0.378378378378378</v>
@@ -4724,7 +4724,7 @@
         <v>13.0</v>
       </c>
       <c r="O60" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="P60" t="n">
         <v>0.516129032258065</v>
@@ -4801,7 +4801,7 @@
         <v>8.0</v>
       </c>
       <c r="O61" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="P61" t="n">
         <v>0.916666666666667</v>
@@ -4878,7 +4878,7 @@
         <v>12.0</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="P62" t="n">
         <v>1.0</v>
@@ -5109,7 +5109,7 @@
         <v>6.0</v>
       </c>
       <c r="O65" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P65" t="n">
         <v>0.521739130434783</v>
@@ -5417,7 +5417,7 @@
         <v>3.0</v>
       </c>
       <c r="O69" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P69" t="n">
         <v>0.941176470588235</v>
@@ -5494,7 +5494,7 @@
         <v>8.0</v>
       </c>
       <c r="O70" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P70" t="n">
         <v>0.838709677419355</v>
@@ -5648,7 +5648,7 @@
         <v>8.0</v>
       </c>
       <c r="O72" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P72" t="n">
         <v>0.421052631578947</v>
@@ -5725,7 +5725,7 @@
         <v>8.0</v>
       </c>
       <c r="O73" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="P73" t="n">
         <v>0.888888888888889</v>
@@ -5879,7 +5879,7 @@
         <v>18.0</v>
       </c>
       <c r="O75" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="P75" t="n">
         <v>0.709677419354839</v>
@@ -5956,7 +5956,7 @@
         <v>4.0</v>
       </c>
       <c r="O76" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P76" t="n">
         <v>0.923076923076923</v>
@@ -6033,7 +6033,7 @@
         <v>7.0</v>
       </c>
       <c r="O77" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P77" t="n">
         <v>0.615384615384615</v>
@@ -6110,7 +6110,7 @@
         <v>10.0</v>
       </c>
       <c r="O78" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="P78" t="n">
         <v>0.981132075471698</v>
@@ -6187,7 +6187,7 @@
         <v>5.0</v>
       </c>
       <c r="O79" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P79" t="n">
         <v>0.347826086956522</v>
@@ -6264,7 +6264,7 @@
         <v>7.0</v>
       </c>
       <c r="O80" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="P80" t="n">
         <v>0.571428571428571</v>
@@ -6418,7 +6418,7 @@
         <v>15.0</v>
       </c>
       <c r="O82" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="P82" t="n">
         <v>0.5</v>
@@ -6495,7 +6495,7 @@
         <v>5.0</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P83" t="n">
         <v>0.421052631578947</v>
@@ -6572,7 +6572,7 @@
         <v>4.0</v>
       </c>
       <c r="O84" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P84" t="n">
         <v>0.62962962962963</v>
@@ -6649,7 +6649,7 @@
         <v>5.0</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P85" t="n">
         <v>0.258064516129032</v>
@@ -6726,7 +6726,7 @@
         <v>9.0</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P86" t="n">
         <v>0.82051282051282</v>
@@ -6957,7 +6957,7 @@
         <v>22.0</v>
       </c>
       <c r="O89" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P89" t="n">
         <v>0.408163265306122</v>
@@ -7111,7 +7111,7 @@
         <v>7.0</v>
       </c>
       <c r="O91" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P91" t="n">
         <v>0.142857142857143</v>
@@ -7188,7 +7188,7 @@
         <v>10.0</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P92" t="n">
         <v>0.0</v>
@@ -7419,7 +7419,7 @@
         <v>5.0</v>
       </c>
       <c r="O95" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P95" t="n">
         <v>0.352941176470588</v>
@@ -7496,7 +7496,7 @@
         <v>8.0</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P96" t="n">
         <v>0.75</v>
@@ -7573,7 +7573,7 @@
         <v>3.0</v>
       </c>
       <c r="O97" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P97" t="n">
         <v>0.857142857142857</v>
@@ -7727,7 +7727,7 @@
         <v>14.0</v>
       </c>
       <c r="O99" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P99" t="n">
         <v>0.923076923076923</v>
@@ -7804,7 +7804,7 @@
         <v>4.0</v>
       </c>
       <c r="O100" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P100" t="n">
         <v>0.538461538461538</v>
@@ -7881,7 +7881,7 @@
         <v>4.0</v>
       </c>
       <c r="O101" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P101" t="n">
         <v>0.214285714285714</v>
